--- a/REST/Flask-restful/Fake_data.xlsx
+++ b/REST/Flask-restful/Fake_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27795" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="PersonPageRank" sheetId="2" r:id="rId3"/>
     <sheet name="Persons" sheetId="3" r:id="rId4"/>
     <sheet name="Sites" sheetId="4" r:id="rId5"/>
+    <sheet name="Users" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PersonPageRank!$A$1:$C$46</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>/index.html</t>
   </si>
@@ -96,6 +97,105 @@
   </si>
   <si>
     <t>ВВП</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Саша</t>
+  </si>
+  <si>
+    <t>login1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>Коля</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>passwod2</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Маша</t>
+  </si>
+  <si>
+    <t>Дима</t>
+  </si>
+  <si>
+    <t>Настя</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>login3</t>
+  </si>
+  <si>
+    <t>login4</t>
+  </si>
+  <si>
+    <t>login5</t>
+  </si>
+  <si>
+    <t>login6</t>
+  </si>
+  <si>
+    <t>login7</t>
+  </si>
+  <si>
+    <t>login8</t>
+  </si>
+  <si>
+    <t>login9</t>
+  </si>
+  <si>
+    <t>login10</t>
+  </si>
+  <si>
+    <t>passwod3</t>
+  </si>
+  <si>
+    <t>passwod4</t>
+  </si>
+  <si>
+    <t>passwod5</t>
+  </si>
+  <si>
+    <t>passwod6</t>
+  </si>
+  <si>
+    <t>passwod7</t>
+  </si>
+  <si>
+    <t>passwod8</t>
+  </si>
+  <si>
+    <t>passwod9</t>
+  </si>
+  <si>
+    <t>passwod10</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -472,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1553,4 +1653,185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>